--- a/JCF_TB_1794_Heterogene_Begriffe.xlsx
+++ b/JCF_TB_1794_Heterogene_Begriffe.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chbws00dfsv03.ps.gf\homes$\gfp04101\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Heterogene Begriffe - Heterogen" sheetId="1" r:id="rId4"/>
+    <sheet name="Heterogene Begriffe - Heterogen" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>Heterogene Begrife</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>NameText</t>
   </si>
@@ -31,7 +35,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -45,7 +49,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -62,7 +66,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -76,7 +80,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -90,7 +94,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -101,7 +105,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -130,7 +134,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -149,7 +153,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -160,7 +164,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -179,7 +183,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -190,7 +194,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -204,7 +208,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -236,7 +240,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -245,8 +249,8 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -268,7 +272,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -290,7 +294,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -307,7 +311,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -326,7 +330,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -336,16 +340,16 @@
   </si>
   <si>
     <t>Christopher Polhem’s mechanisches alphabet</t>
+  </si>
+  <si>
+    <t>Heterogene Begriffe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -357,13 +361,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -374,14 +378,14 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -522,72 +526,131 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -713,7 +776,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -722,7 +785,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -731,7 +794,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -795,8 +858,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -804,7 +867,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -812,7 +875,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -831,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +902,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -867,7 +930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1151,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1107,7 +1176,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1126,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,9 +1442,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1389,7 +1464,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1408,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,321 +1734,329 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+    </row>
+    <row r="3" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="60.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="B3" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="112.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" ht="112.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B9" s="7">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="34.35" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" ht="34.35" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" ht="34.35" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="B13" s="7">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" ht="32.35" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="32.35" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B14" s="7">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" ht="32.35" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" ht="21.35" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="21.35" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="34.35" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="21.35" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8">
+    </row>
+    <row r="18" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="34.35" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" ht="47.35" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="B20" s="7">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="248.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7">
+        <v>43</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="34.35" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="248.35" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" ht="56.35" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B22" s="8">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D21" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
